--- a/static/COGU_20250420.xlsx
+++ b/static/COGU_20250420.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/coguMSHP/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B23CC8C-B709-7D43-B54B-E6232F776254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5754A59-B416-FE41-8DFF-77C9F9139CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{456DD05D-77F7-1A41-BE99-439CC8DCA673}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{456DD05D-77F7-1A41-BE99-439CC8DCA673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$171</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -887,8 +890,8 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B147" sqref="B147:B149"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -946,7 +949,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6">
-        <v>45402</v>
+        <v>45767</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
@@ -7275,6 +7278,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L171" xr:uid="{4877587F-FA8C-AA4C-94F5-17689E799D52}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>